--- a/Documentation/Footage Requirements.xlsx
+++ b/Documentation/Footage Requirements.xlsx
@@ -15,8 +15,270 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="E3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Candidate Links:
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Candidate Links:
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Candidate Links:
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Candidate Links:
+https://www.youtube.com/watch?v=gN0GDRWvRig
+https://www.youtube.com/watch?v=HEN1ActpgQk
+https://www.youtube.com/watch?v=rx82OE9kuuE</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Candidate Links:
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Candidate Links:
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Candidate Links:
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Candidate Links:
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Candidate Links:
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Candidate Links:
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
   <si>
     <t>Description</t>
   </si>
@@ -64,13 +326,34 @@
   </si>
   <si>
     <t>4.0 to 10 secs</t>
+  </si>
+  <si>
+    <t>People carrying boards (In preperation to skate)</t>
+  </si>
+  <si>
+    <t>Close up of stacks (big or small)</t>
+  </si>
+  <si>
+    <t>Frustrated skater (slamming boards, throwing arms up)</t>
+  </si>
+  <si>
+    <t>Tricks performed in front of green screen (only if available)</t>
+  </si>
+  <si>
+    <t>3.0 to 5.0 secs</t>
+  </si>
+  <si>
+    <t>Footage Requirement List</t>
+  </si>
+  <si>
+    <t>Epic tricks (some with landing/roll out)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +369,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -95,7 +399,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -256,12 +560,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -296,10 +638,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Title" xfId="2" builtinId="15"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -597,23 +949,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.42578125" customWidth="1"/>
+    <col min="1" max="1" width="54.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="1" spans="1:5" ht="23.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="16"/>
+    </row>
     <row r="2" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>0</v>
@@ -656,12 +1016,12 @@
         <v>9</v>
       </c>
       <c r="C4" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="7">
         <v>0</v>
       </c>
     </row>
@@ -678,7 +1038,7 @@
       <c r="D5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="7">
         <v>0</v>
       </c>
     </row>
@@ -690,13 +1050,13 @@
         <v>6</v>
       </c>
       <c r="C6" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="10">
-        <v>0</v>
+      <c r="E6" s="7">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -712,7 +1072,7 @@
       <c r="D7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="7">
         <v>0</v>
       </c>
     </row>
@@ -729,44 +1089,94 @@
       <c r="D8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="9">
+        <v>4</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
+      <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="9">
+        <v>5</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
+      <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="9">
+        <v>4</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
+      <c r="A12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="9">
+        <v>4</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10"/>
+      <c r="A13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="9">
+        <v>4</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
@@ -972,8 +1382,12 @@
       <c r="E42" s="13"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Documentation/Footage Requirements.xlsx
+++ b/Documentation/Footage Requirements.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -21,7 +21,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="E3" authorId="0">
+    <comment ref="E3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -46,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0">
+    <comment ref="E4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -71,7 +71,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -96,7 +96,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E6" authorId="0">
+    <comment ref="E6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -123,7 +123,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E7" authorId="0">
+    <comment ref="E7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -148,7 +148,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E8" authorId="0">
+    <comment ref="E8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -173,7 +173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E9" authorId="0">
+    <comment ref="E9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -198,7 +198,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E10" authorId="0">
+    <comment ref="E10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -223,7 +223,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E11" authorId="0">
+    <comment ref="E11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -248,7 +248,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E12" authorId="0">
+    <comment ref="E12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -278,7 +278,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="34">
   <si>
     <t>Description</t>
   </si>
@@ -347,6 +347,39 @@
   </si>
   <si>
     <t>Epic tricks (some with landing/roll out)</t>
+  </si>
+  <si>
+    <t>Slow motion with Go Pro (preferably on a half pipe)</t>
+  </si>
+  <si>
+    <t>Close up of legs while riding (towards camera)</t>
+  </si>
+  <si>
+    <t>2.0 to 4.0 secs</t>
+  </si>
+  <si>
+    <t>Jumping down stairs one by one (slow motion)</t>
+  </si>
+  <si>
+    <t>2.0 to 3.0 secs</t>
+  </si>
+  <si>
+    <t>Footage of empty/abandoned skate park (slowly strafing)</t>
+  </si>
+  <si>
+    <t>Sped up morning to evening footage of sky (appear as if they have been skating for hours)</t>
+  </si>
+  <si>
+    <t>Riding through crowded area (busy park/footpath, shows anti-social behaviour)</t>
+  </si>
+  <si>
+    <t>Show determined shot of face before big trick (found a lot of pro skater footage)</t>
+  </si>
+  <si>
+    <t>1.0 to 2.0 secs</t>
+  </si>
+  <si>
+    <t>Grinding along rail one by one (maybe 3+ people)</t>
   </si>
 </sst>
 </file>
@@ -659,6 +692,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -706,7 +742,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -741,7 +777,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -952,13 +988,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="80.85546875" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" customWidth="1"/>
@@ -1179,60 +1215,140 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10"/>
+      <c r="A14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="9">
+        <v>2</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10"/>
+      <c r="A15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="9">
+        <v>2</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="10"/>
+      <c r="A16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="9">
+        <v>1</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="10"/>
+      <c r="A17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="9">
+        <v>2</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="10"/>
+      <c r="A18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="9">
+        <v>1</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="10"/>
+      <c r="A19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="9">
+        <v>1</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="10"/>
+      <c r="A20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="9">
+        <v>2</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="10"/>
+      <c r="A21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="9">
+        <v>2</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>

--- a/Documentation/Footage Requirements.xlsx
+++ b/Documentation/Footage Requirements.xlsx
@@ -278,7 +278,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="35">
   <si>
     <t>Description</t>
   </si>
@@ -380,6 +380,9 @@
   </si>
   <si>
     <t>Grinding along rail one by one (maybe 3+ people)</t>
+  </si>
+  <si>
+    <t>Punk/skater looking crowd (baggy clothes etc) cheering</t>
   </si>
 </sst>
 </file>
@@ -989,7 +992,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1351,11 +1354,21 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="10"/>
+      <c r="A22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="9">
+        <v>1</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>

--- a/Documentation/Footage Requirements.xlsx
+++ b/Documentation/Footage Requirements.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -21,7 +21,34 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="E3" authorId="0" shapeId="0">
+    <comment ref="E3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Candidate Links:
+https://www.youtube.com/watch?v=A42mHv2pqsY
+https://www.youtube.com/watch?v=IWU5Apfu3gQ
+https://www.youtube.com/watch?v=Desl_yeM6DA</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -46,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -71,32 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Candidate Links:
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E6" authorId="0" shapeId="0">
+    <comment ref="E6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -123,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E7" authorId="0" shapeId="0">
+    <comment ref="E7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -148,7 +150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E8" authorId="0" shapeId="0">
+    <comment ref="E8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -173,7 +175,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E9" authorId="0" shapeId="0">
+    <comment ref="E9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -198,7 +200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E10" authorId="0" shapeId="0">
+    <comment ref="E10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -223,7 +225,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E11" authorId="0" shapeId="0">
+    <comment ref="E11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -248,7 +250,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E12" authorId="0" shapeId="0">
+    <comment ref="E12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -745,7 +747,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -780,7 +782,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -991,8 +993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1044,7 +1046,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1095,7 +1097,7 @@
         <v>7</v>
       </c>
       <c r="E6" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">

--- a/Documentation/Footage Requirements.xlsx
+++ b/Documentation/Footage Requirements.xlsx
@@ -221,7 +221,7 @@
           </rPr>
           <t xml:space="preserve">
 Candidate Links:
-</t>
+https://www.youtube.com/watch?v=X_FtOjdAo64</t>
         </r>
       </text>
     </comment>
@@ -993,8 +993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1165,7 +1165,7 @@
         <v>7</v>
       </c>
       <c r="E10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">

--- a/Documentation/Footage Requirements.xlsx
+++ b/Documentation/Footage Requirements.xlsx
@@ -121,7 +121,10 @@
 Candidate Links:
 https://www.youtube.com/watch?v=gN0GDRWvRig
 https://www.youtube.com/watch?v=HEN1ActpgQk
-https://www.youtube.com/watch?v=rx82OE9kuuE</t>
+https://www.youtube.com/watch?v=rx82OE9kuuE
+https://www.youtube.com/watch?v=3LUAj8flnJ4
+https://www.youtube.com/watch?v=c9AOfpbnJWI
+https://www.youtube.com/watch?v=tSnfO15cAHE</t>
         </r>
       </text>
     </comment>
@@ -993,8 +996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
